--- a/reliability/listado_oficial.xlsx
+++ b/reliability/listado_oficial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vales\DataspellProjects\kbook\reliability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB71C4C-B58E-4B92-A1CE-0CD6507945D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A380EAE2-0E02-4D2B-AFD1-DCFFEFB7CDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{628692B3-BE11-428B-BB8A-3F33F0D662BD}"/>
   </bookViews>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="52">
   <si>
     <t>Flota</t>
   </si>
   <si>
-    <t>N° Equipo</t>
-  </si>
-  <si>
-    <t>Componente</t>
-  </si>
-  <si>
-    <t>Posición</t>
-  </si>
-  <si>
     <t>Horómetro Real</t>
   </si>
   <si>
@@ -183,6 +174,24 @@
   </si>
   <si>
     <t>TK881</t>
+  </si>
+  <si>
+    <t>equipment_name</t>
+  </si>
+  <si>
+    <t>component_name</t>
+  </si>
+  <si>
+    <t>position_name</t>
+  </si>
+  <si>
+    <t>OS 1</t>
+  </si>
+  <si>
+    <t>Sin OS</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -192,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +231,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -258,11 +292,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -291,9 +327,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -309,10 +342,27 @@
     <xf numFmtId="17" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 51" xfId="2" xr:uid="{ED5999CA-6EB2-48DB-9E7A-F71BCCEE3EE7}"/>
+    <cellStyle name="Normal 52" xfId="3" xr:uid="{79902FB3-63CC-497C-B6A1-B7010A947FFB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -644,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F114A222-7405-46FB-A794-30C2E13E1B83}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,38 +709,41 @@
     <col min="6" max="6" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6">
         <v>14102</v>
@@ -698,17 +751,20 @@
       <c r="F2" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G2" s="16">
+        <v>18127635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -716,17 +772,20 @@
       <c r="F3" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G3" s="16">
+        <v>18127636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -734,17 +793,20 @@
       <c r="F4" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G4" s="16">
+        <v>18127637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -752,19 +814,22 @@
       <c r="F5" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G5" s="16">
+        <v>18127638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <v>32002</v>
@@ -772,17 +837,20 @@
       <c r="F6" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G6" s="16">
+        <v>18126805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -790,17 +858,20 @@
       <c r="F7" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G7" s="16">
+        <v>18126806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -808,17 +879,20 @@
       <c r="F8" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G8" s="16">
+        <v>18126807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -826,19 +900,22 @@
       <c r="F9" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G9" s="16">
+        <v>18126808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7">
         <v>20227</v>
@@ -846,19 +923,22 @@
       <c r="F10" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6">
         <v>6620</v>
@@ -866,17 +946,20 @@
       <c r="F11" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="16">
+        <v>18127085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -884,17 +967,20 @@
       <c r="F12" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="16">
+        <v>18127086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -902,17 +988,20 @@
       <c r="F13" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="16">
+        <v>18126977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -920,19 +1009,22 @@
       <c r="F14" s="8">
         <v>45444</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G14" s="16">
+        <v>18126978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7">
         <v>17079</v>
@@ -940,19 +1032,22 @@
       <c r="F15" s="8">
         <v>45474</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G15" s="16">
+        <v>18127504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7">
         <v>13291</v>
@@ -960,19 +1055,22 @@
       <c r="F16" s="8">
         <v>45505</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" s="7">
         <v>7398</v>
@@ -980,19 +1078,22 @@
       <c r="F17" s="8">
         <v>45505</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7">
         <v>18412</v>
@@ -1000,19 +1101,22 @@
       <c r="F18" s="8">
         <v>45505</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19" s="7">
         <v>12921</v>
@@ -1020,19 +1124,22 @@
       <c r="F19" s="8">
         <v>45505</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="18">
+        <v>18128414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20" s="7">
         <v>14426</v>
@@ -1040,37 +1147,43 @@
       <c r="F20" s="8">
         <v>45536</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="G20" s="18">
+        <v>18128289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E22" s="7">
         <v>8385</v>
@@ -1078,19 +1191,22 @@
       <c r="F22" s="8">
         <v>45536</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="18">
+        <v>18129323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23" s="7">
         <v>8385</v>
@@ -1098,19 +1214,22 @@
       <c r="F23" s="8">
         <v>45536</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="18">
+        <v>18129324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24" s="7">
         <v>8385</v>
@@ -1118,19 +1237,22 @@
       <c r="F24" s="8">
         <v>45536</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="18">
+        <v>18129381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" s="7">
         <v>14097</v>
@@ -1138,19 +1260,22 @@
       <c r="F25" s="8">
         <v>45566</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="18">
+        <v>18129130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E26" s="7">
         <v>16027</v>
@@ -1158,19 +1283,22 @@
       <c r="F26" s="8">
         <v>45566</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G26" s="18">
+        <v>18129431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="7">
         <v>18829</v>
@@ -1178,19 +1306,22 @@
       <c r="F27" s="8">
         <v>45566</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G27" s="19">
+        <v>18128354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E28" s="7">
         <v>26719</v>
@@ -1198,19 +1329,22 @@
       <c r="F28" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="18">
+        <v>18129485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E29" s="7">
         <v>28540</v>
@@ -1218,19 +1352,22 @@
       <c r="F29" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="18">
+        <v>18129486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E30" s="7">
         <v>24441</v>
@@ -1238,17 +1375,20 @@
       <c r="F30" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="18">
+        <v>18129586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -1256,17 +1396,20 @@
       <c r="F31" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="18">
+        <v>18129587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="15"/>
       <c r="D32" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E32" s="7">
         <v>0</v>
@@ -1274,19 +1417,22 @@
       <c r="F32" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="18">
+        <v>18129588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E33" s="7">
         <v>19379</v>
@@ -1294,17 +1440,20 @@
       <c r="F33" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="18">
+        <v>18129747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C34" s="15"/>
       <c r="D34" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -1312,17 +1461,20 @@
       <c r="F34" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="18">
+        <v>18129748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C35" s="15"/>
       <c r="D35" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -1330,19 +1482,22 @@
       <c r="F35" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="18">
+        <v>18129749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36" s="7">
         <v>26085</v>
@@ -1350,19 +1505,22 @@
       <c r="F36" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37" s="7">
         <v>8077</v>
@@ -1370,19 +1528,22 @@
       <c r="F37" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="18">
+        <v>18129919</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E38" s="7">
         <v>20650</v>
@@ -1390,19 +1551,22 @@
       <c r="F38" s="8">
         <v>45597</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="18">
+        <v>18129920</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
         <v>23560</v>
@@ -1410,19 +1574,22 @@
       <c r="F39" s="8">
         <v>45627</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G39" s="18">
+        <v>18130121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E40" s="7">
         <v>43800</v>
@@ -1430,19 +1597,22 @@
       <c r="F40" s="8">
         <v>45627</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G40" s="18">
+        <v>18130433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E41" s="6">
         <v>22838</v>
@@ -1450,17 +1620,20 @@
       <c r="F41" s="8">
         <v>45627</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G41" s="18">
+        <v>18130429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C42" s="15"/>
       <c r="D42" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E42" s="7">
         <v>0</v>
@@ -1468,17 +1641,20 @@
       <c r="F42" s="8">
         <v>45627</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G42" s="18">
+        <v>18130430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C43" s="15"/>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43" s="7">
         <v>0</v>
@@ -1486,17 +1662,20 @@
       <c r="F43" s="8">
         <v>45627</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G43" s="18">
+        <v>18130431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C44" s="15"/>
       <c r="D44" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E44" s="7">
         <v>0</v>
@@ -1504,19 +1683,22 @@
       <c r="F44" s="8">
         <v>45627</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="18">
+        <v>18130432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E45" s="7">
         <v>21694</v>
@@ -1524,19 +1706,22 @@
       <c r="F45" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G45" s="18">
+        <v>18130691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E46" s="7">
         <v>17965</v>
@@ -1544,19 +1729,22 @@
       <c r="F46" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="18">
+        <v>18131331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E47" s="6">
         <v>16928</v>
@@ -1564,17 +1752,20 @@
       <c r="F47" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="18">
+        <v>18130740</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C48" s="15"/>
       <c r="D48" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
@@ -1582,17 +1773,20 @@
       <c r="F48" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="18">
+        <v>18130811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C49" s="15"/>
       <c r="D49" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7">
         <v>0</v>
@@ -1600,17 +1794,20 @@
       <c r="F49" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="18">
+        <v>18130812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C50" s="15"/>
       <c r="D50" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
@@ -1618,19 +1815,22 @@
       <c r="F50" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="18">
+        <v>18130813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E51" s="7">
         <v>25370</v>
@@ -1638,19 +1838,22 @@
       <c r="F51" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="18">
+        <v>18130692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E52" s="7">
         <v>25510</v>
@@ -1658,19 +1861,22 @@
       <c r="F52" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G52" s="18">
+        <v>18130771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E53" s="6">
         <v>17755</v>
@@ -1678,17 +1884,20 @@
       <c r="F53" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G53" s="18">
+        <v>18130797</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="15"/>
       <c r="D54" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E54" s="7">
         <v>0</v>
@@ -1696,17 +1905,20 @@
       <c r="F54" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G54" s="18">
+        <v>18130798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C55" s="15"/>
       <c r="D55" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E55" s="7">
         <v>0</v>
@@ -1714,17 +1926,20 @@
       <c r="F55" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G55" s="18">
+        <v>18130799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C56" s="15"/>
       <c r="D56" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E56" s="7">
         <v>0</v>
@@ -1732,19 +1947,22 @@
       <c r="F56" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="18">
+        <v>18130821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E57" s="7">
         <v>32269</v>
@@ -1752,17 +1970,20 @@
       <c r="F57" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="18">
+        <v>18130772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C58" s="15"/>
       <c r="D58" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E58" s="7">
         <v>0</v>
@@ -1770,17 +1991,20 @@
       <c r="F58" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="18">
+        <v>18130773</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C59" s="15"/>
       <c r="D59" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E59" s="7">
         <v>0</v>
@@ -1788,19 +2012,22 @@
       <c r="F59" s="8">
         <v>45658</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="18">
+        <v>18130774</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E60" s="6">
         <v>22451</v>
@@ -1808,17 +2035,20 @@
       <c r="F60" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C61" s="15"/>
       <c r="D61" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E61" s="7">
         <v>0</v>
@@ -1826,17 +2056,20 @@
       <c r="F61" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C62" s="15"/>
       <c r="D62" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
@@ -1844,17 +2077,20 @@
       <c r="F62" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C63" s="15"/>
       <c r="D63" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E63" s="7">
         <v>0</v>
@@ -1862,19 +2098,22 @@
       <c r="F63" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E64" s="7">
         <v>23979</v>
@@ -1882,19 +2121,22 @@
       <c r="F64" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E65" s="7">
         <v>13207</v>
@@ -1902,19 +2144,22 @@
       <c r="F65" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="18">
+        <v>18131182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E66" s="6">
         <v>13000</v>
@@ -1922,17 +2167,20 @@
       <c r="F66" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="18">
+        <v>18131183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C67" s="15"/>
       <c r="D67" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E67" s="7">
         <v>0</v>
@@ -1940,17 +2188,20 @@
       <c r="F67" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="18">
+        <v>18131184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C68" s="15"/>
       <c r="D68" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E68" s="7">
         <v>0</v>
@@ -1958,17 +2209,20 @@
       <c r="F68" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="18">
+        <v>18131185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C69" s="15"/>
       <c r="D69" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E69" s="7">
         <v>0</v>
@@ -1976,19 +2230,22 @@
       <c r="F69" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="18">
+        <v>18131186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E70" s="6">
         <v>9461</v>
@@ -1996,17 +2253,20 @@
       <c r="F70" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="18">
+        <v>18131326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C71" s="15"/>
       <c r="D71" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E71" s="7">
         <v>0</v>
@@ -2014,17 +2274,20 @@
       <c r="F71" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="18">
+        <v>18131327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C72" s="15"/>
       <c r="D72" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E72" s="7">
         <v>0</v>
@@ -2032,17 +2295,20 @@
       <c r="F72" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="18">
+        <v>18131328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C73" s="15"/>
       <c r="D73" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E73" s="7">
         <v>0</v>
@@ -2050,19 +2316,22 @@
       <c r="F73" s="8">
         <v>45689</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="18">
+        <v>18131329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E74" s="7">
         <v>27053</v>
@@ -2070,17 +2339,20 @@
       <c r="F74" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="18">
+        <v>18131608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C75" s="15"/>
       <c r="D75" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E75" s="7">
         <v>0</v>
@@ -2088,17 +2360,20 @@
       <c r="F75" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="18">
+        <v>18131609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C76" s="15"/>
       <c r="D76" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E76" s="7">
         <v>0</v>
@@ -2106,19 +2381,22 @@
       <c r="F76" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="18">
+        <v>18131610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E77" s="7">
         <v>33381</v>
@@ -2126,19 +2404,22 @@
       <c r="F77" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="18">
+        <v>18131611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E78" s="7">
         <v>15571</v>
@@ -2146,19 +2427,22 @@
       <c r="F78" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G78" s="18">
+        <v>18131626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E79" s="7">
         <v>9277</v>
@@ -2166,17 +2450,20 @@
       <c r="F79" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G79" s="18">
+        <v>18131818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C80" s="15"/>
       <c r="D80" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E80" s="7">
         <v>0</v>
@@ -2184,17 +2471,20 @@
       <c r="F80" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G80" s="18">
+        <v>18131819</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C81" s="15"/>
       <c r="D81" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
@@ -2202,19 +2492,22 @@
       <c r="F81" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G81" s="18">
+        <v>18131900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E82" s="7">
         <v>57253</v>
@@ -2222,19 +2515,22 @@
       <c r="F82" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G82" s="18">
+        <v>18131904</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E83" s="7">
         <v>16474</v>
@@ -2242,17 +2538,20 @@
       <c r="F83" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G83" s="18">
+        <v>18131966</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C84" s="15"/>
       <c r="D84" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E84" s="7">
         <v>0</v>
@@ -2260,17 +2559,20 @@
       <c r="F84" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="G84" s="18">
+        <v>18131967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C85" s="15"/>
       <c r="D85" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E85" s="7">
         <v>0</v>
@@ -2278,25 +2580,31 @@
       <c r="F85" s="8">
         <v>45717</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="18">
+        <v>18131968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E86" s="7">
         <v>23123</v>
       </c>
       <c r="F86" s="8">
         <v>45717</v>
+      </c>
+      <c r="G86" s="18">
+        <v>18132079</v>
       </c>
     </row>
   </sheetData>
@@ -2310,12 +2618,12 @@
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C41:C44"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C41:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
